--- a/data/landings/cdfw/public/merged/data/meta_data.xlsx
+++ b/data/landings/cdfw/public/merged/data/meta_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B8BFD-7717-5D4E-8A77-3C27BB653573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F1C12-C2FC-474F-BF5D-96951F5C2022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="9640" windowWidth="26840" windowHeight="15940" xr2:uid="{AC132C18-B31F-E947-866D-17F2C52FA298}"/>
+    <workbookView xWindow="24340" yWindow="9620" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{AC132C18-B31F-E947-866D-17F2C52FA298}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Port-level" sheetId="1" r:id="rId1"/>
+    <sheet name="Kelp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Column</t>
   </si>
@@ -112,6 +113,30 @@
   </si>
   <si>
     <t>Table number (e.g., Table 4, Table 5, etc.)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Landings or Shipments</t>
+  </si>
+  <si>
+    <t>total_t</t>
+  </si>
+  <si>
+    <t>open_bed_t</t>
+  </si>
+  <si>
+    <t>leased_bed_t</t>
+  </si>
+  <si>
+    <t>Harvest (tons) from open beds</t>
+  </si>
+  <si>
+    <t>Harvest (tons) from leased beds</t>
+  </si>
+  <si>
+    <t>Total harvest (tons) - sum of open and leased harvest</t>
   </si>
 </sst>
 </file>
@@ -483,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AEFF49-9600-424E-B7FD-74AFA679333C}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,29 +593,26 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -598,28 +620,39 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -627,4 +660,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A695CE-FF52-C948-9F07-5AA9EB63B478}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/landings/cdfw/public/merged/data/meta_data.xlsx
+++ b/data/landings/cdfw/public/merged/data/meta_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F1C12-C2FC-474F-BF5D-96951F5C2022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E60E4-57BF-F04A-B541-4E8CDBB3AF01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24340" yWindow="9620" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{AC132C18-B31F-E947-866D-17F2C52FA298}"/>
+    <workbookView xWindow="23740" yWindow="9680" windowWidth="26840" windowHeight="15940" activeTab="4" xr2:uid="{AC132C18-B31F-E947-866D-17F2C52FA298}"/>
   </bookViews>
   <sheets>
     <sheet name="Port-level" sheetId="1" r:id="rId1"/>
     <sheet name="Kelp" sheetId="2" r:id="rId2"/>
+    <sheet name="Nvessels" sheetId="3" r:id="rId3"/>
+    <sheet name="Nvessels by port" sheetId="4" r:id="rId4"/>
+    <sheet name="Nvessels by length" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Column</t>
   </si>
@@ -137,6 +140,60 @@
   </si>
   <si>
     <t>Total harvest (tons) - sum of open and leased harvest</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>nvessels</t>
+  </si>
+  <si>
+    <t>Number of registered commercial fishing vessels</t>
+  </si>
+  <si>
+    <t>License year, April 1st to March 31st</t>
+  </si>
+  <si>
+    <t>port_complex</t>
+  </si>
+  <si>
+    <t>Port complex (e.g., San Francisco, Monterey, etc.)</t>
+  </si>
+  <si>
+    <t>region_type</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>length_class_system</t>
+  </si>
+  <si>
+    <t>length_class_group</t>
+  </si>
+  <si>
+    <t>length_class</t>
+  </si>
+  <si>
+    <t>length_class_floor</t>
+  </si>
+  <si>
+    <t>Length class (ft)</t>
+  </si>
+  <si>
+    <t>Lower limit of the length class (ft)</t>
+  </si>
+  <si>
+    <t>5-class, 6-class, or 36-class system</t>
+  </si>
+  <si>
+    <t>Region name (port complex name or "statewide")</t>
+  </si>
+  <si>
+    <t>Region type (by port complex or statewide)</t>
+  </si>
+  <si>
+    <t>Length class group (ft), using the 5-class system</t>
   </si>
 </sst>
 </file>
@@ -511,7 +568,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A695CE-FF52-C948-9F07-5AA9EB63B478}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,4 +792,278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A8F648-7716-5B46-8FAE-71D8313271F1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFDFE-169F-6742-8771-258392C9638C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800A39A5-9D1D-204A-9B46-B672E309CDF6}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>